--- a/statistics/momentum/analise.xlsx
+++ b/statistics/momentum/analise.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diogo/Desktop/GradePrediction/statistics/learning_rate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diogo/Desktop/GradePrediction/statistics/momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,6 +19,7 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -113,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -126,6 +127,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -238,16 +242,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -259,16 +266,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.091119691119691</c:v>
+                  <c:v>1.149034749034749</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.225482625482625</c:v>
+                  <c:v>1.183011583011583</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.123552123552124</c:v>
+                  <c:v>1.254054054054054</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.183011583011583</c:v>
+                  <c:v>1.296525096525097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.461003861003861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -285,11 +295,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2036213360"/>
-        <c:axId val="-2035452752"/>
+        <c:axId val="-2044302800"/>
+        <c:axId val="-2040764144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2036213360"/>
+        <c:axId val="-2044302800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -332,7 +342,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2035452752"/>
+        <c:crossAx val="-2040764144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -340,7 +350,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2035452752"/>
+        <c:axId val="-2040764144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,7 +401,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2036213360"/>
+        <c:crossAx val="-2044302800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -593,16 +603,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -614,16 +627,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>83.6</c:v>
+                  <c:v>83.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.8</c:v>
+                  <c:v>79.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.8</c:v>
+                  <c:v>77.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.6</c:v>
+                  <c:v>68.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -640,11 +656,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2030705776"/>
-        <c:axId val="-2030199840"/>
+        <c:axId val="2134843600"/>
+        <c:axId val="-2031544336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2030705776"/>
+        <c:axId val="2134843600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,7 +703,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2030199840"/>
+        <c:crossAx val="-2031544336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -695,7 +711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2030199840"/>
+        <c:axId val="-2031544336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -746,7 +762,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2030705776"/>
+        <c:crossAx val="2134843600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -923,16 +939,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -944,16 +963,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2235.4</c:v>
+                  <c:v>621.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1379.2</c:v>
+                  <c:v>752.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1051.6</c:v>
+                  <c:v>918.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>752.8</c:v>
+                  <c:v>933.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1460.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,11 +992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2039734752"/>
-        <c:axId val="-2036225456"/>
+        <c:axId val="-2051557088"/>
+        <c:axId val="-2053324688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2039734752"/>
+        <c:axId val="-2051557088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,7 +1039,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2036225456"/>
+        <c:crossAx val="-2053324688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1025,7 +1047,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2036225456"/>
+        <c:axId val="-2053324688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,6 +1067,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1075,7 +1098,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2039734752"/>
+        <c:crossAx val="-2051557088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2754,13 +2777,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2784,13 +2807,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2814,13 +2837,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2853,7 +2876,6 @@
       <sheetName val="output (4)"/>
       <sheetName val="output (5)"/>
       <sheetName val="Total"/>
-      <sheetName val="10"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2861,169 +2883,6 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="3">
-          <cell r="G3">
-            <v>1.2254826254826252</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>259</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>75.8</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>0.29266409266409266</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>1379.2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8">
-            <v>9.990000000000001E-4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output"/>
-      <sheetName val="output (2)"/>
-      <sheetName val="output (3)"/>
-      <sheetName val="output (4)"/>
-      <sheetName val="output (5)"/>
-      <sheetName val="Total"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5">
-        <row r="3">
-          <cell r="G3">
-            <v>1.0911196911196912</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>259</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>83.6</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>0.32277992277992279</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>2235.4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8">
-            <v>9.990000000000001E-4</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output"/>
-      <sheetName val="output (2)"/>
-      <sheetName val="output (3)"/>
-      <sheetName val="output (4)"/>
-      <sheetName val="output (5)"/>
-      <sheetName val="Total"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5">
-        <row r="3">
-          <cell r="G3">
-            <v>1.1235521235521237</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>259</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>79.8</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>0.30810810810810813</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>1051.5999999999999</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8">
-            <v>9.9879999999999999E-4</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output"/>
-      <sheetName val="output (2)"/>
-      <sheetName val="output (3)"/>
-      <sheetName val="output (4)"/>
-      <sheetName val="output (5)"/>
-      <sheetName val="Total"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5">
         <row r="3">
           <cell r="G3">
@@ -3048,6 +2907,222 @@
         <row r="7">
           <cell r="G7">
             <v>752.8</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8">
+            <v>9.986000000000001E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="output"/>
+      <sheetName val="output (2)"/>
+      <sheetName val="output (3)"/>
+      <sheetName val="output (4)"/>
+      <sheetName val="output (5)"/>
+      <sheetName val="Total"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="3">
+          <cell r="G3">
+            <v>1.2540540540540541</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>259</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>77.2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.29806949806949812</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>918.6</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8">
+            <v>9.9879999999999999E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="output"/>
+      <sheetName val="output (2)"/>
+      <sheetName val="output (3)"/>
+      <sheetName val="output (4)"/>
+      <sheetName val="output (5)"/>
+      <sheetName val="Total"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="3">
+          <cell r="G3">
+            <v>1.2965250965250967</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>259</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>68.599999999999994</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.26486486486486482</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>933.8</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8">
+            <v>9.986000000000001E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="output"/>
+      <sheetName val="output (2)"/>
+      <sheetName val="output (3)"/>
+      <sheetName val="output (4)"/>
+      <sheetName val="output (5)"/>
+      <sheetName val="Total"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="3">
+          <cell r="G3">
+            <v>1.4610038610038611</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>259</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>66.599999999999994</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.25714285714285712</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>1460.2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8">
+            <v>9.986000000000001E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="output"/>
+      <sheetName val="output (2)"/>
+      <sheetName val="output (3)"/>
+      <sheetName val="output (4)"/>
+      <sheetName val="output (5)"/>
+      <sheetName val="Total"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="3">
+          <cell r="G3">
+            <v>1.149034749034749</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>259</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>83.8</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.32355212355212359</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>621.79999999999995</v>
           </cell>
         </row>
         <row r="8">
@@ -3324,10 +3399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I8"/>
+  <dimension ref="A3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3361,130 +3436,159 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C4" s="1">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5">
+        <f>[5]Total!$G$3</f>
+        <v>1.149034749034749</v>
+      </c>
+      <c r="D4" s="5">
+        <f>[5]Total!$G$4</f>
+        <v>259</v>
+      </c>
+      <c r="E4" s="5">
+        <f>[5]Total!$G$5</f>
+        <v>83.8</v>
+      </c>
+      <c r="F4" s="5">
+        <f>[5]Total!$G$6</f>
+        <v>0.32355212355212359</v>
+      </c>
+      <c r="G4" s="5">
+        <f>[5]Total!$G$7</f>
+        <v>621.79999999999995</v>
+      </c>
+      <c r="H4" s="5">
+        <f>[5]Total!$G$8</f>
+        <v>9.986000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5">
+        <f>[1]Total!$G$3</f>
+        <v>1.183011583011583</v>
+      </c>
+      <c r="D5" s="5">
+        <f>[1]Total!$G$4</f>
+        <v>259</v>
+      </c>
+      <c r="E5" s="5">
+        <f>[1]Total!$G$5</f>
+        <v>79.599999999999994</v>
+      </c>
+      <c r="F5" s="5">
+        <f>[1]Total!$G$6</f>
+        <v>0.30733590733590732</v>
+      </c>
+      <c r="G5" s="5">
+        <f>[1]Total!$G$7</f>
+        <v>752.8</v>
+      </c>
+      <c r="H5" s="5">
+        <f>[1]Total!$G$8</f>
+        <v>9.986000000000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2">
         <f>[2]Total!$G$3</f>
-        <v>1.0911196911196912</v>
-      </c>
-      <c r="D4" s="1">
+        <v>1.2540540540540541</v>
+      </c>
+      <c r="D6" s="2">
         <f>[2]Total!$G$4</f>
         <v>259</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E6" s="2">
         <f>[2]Total!$G$5</f>
-        <v>83.6</v>
-      </c>
-      <c r="F4" s="1">
+        <v>77.2</v>
+      </c>
+      <c r="F6" s="2">
         <f>[2]Total!$G$6</f>
-        <v>0.32277992277992279</v>
-      </c>
-      <c r="G4" s="1">
+        <v>0.29806949806949812</v>
+      </c>
+      <c r="G6" s="2">
         <f>[2]Total!$G$7</f>
-        <v>2235.4</v>
-      </c>
-      <c r="H4" s="1">
+        <v>918.6</v>
+      </c>
+      <c r="H6" s="2">
         <f>[2]Total!$G$8</f>
-        <v>9.990000000000001E-4</v>
+        <v>9.9879999999999999E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="2">
-        <f>[1]Total!$G$3</f>
-        <v>1.2254826254826252</v>
-      </c>
-      <c r="D5" s="2">
-        <f>[1]Total!$G$4</f>
-        <v>259</v>
-      </c>
-      <c r="E5" s="2">
-        <f>[1]Total!$G$5</f>
-        <v>75.8</v>
-      </c>
-      <c r="F5" s="2">
-        <f>[1]Total!$G$6</f>
-        <v>0.29266409266409266</v>
-      </c>
-      <c r="G5" s="2">
-        <f>[1]Total!$G$7</f>
-        <v>1379.2</v>
-      </c>
-      <c r="H5" s="2">
-        <f>[1]Total!$G$8</f>
-        <v>9.990000000000001E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="C6" s="1">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1">
         <f>[3]Total!$G$3</f>
-        <v>1.1235521235521237</v>
-      </c>
-      <c r="D6" s="1">
+        <v>1.2965250965250967</v>
+      </c>
+      <c r="D7" s="1">
         <f>[3]Total!$G$4</f>
         <v>259</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <f>[3]Total!$G$5</f>
-        <v>79.8</v>
-      </c>
-      <c r="F6" s="1">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="F7" s="1">
         <f>[3]Total!$G$6</f>
-        <v>0.30810810810810813</v>
-      </c>
-      <c r="G6" s="1">
+        <v>0.26486486486486482</v>
+      </c>
+      <c r="G7" s="1">
         <f>[3]Total!$G$7</f>
-        <v>1051.5999999999999</v>
-      </c>
-      <c r="H6" s="1">
+        <v>933.8</v>
+      </c>
+      <c r="H7" s="1">
         <f>[3]Total!$G$8</f>
-        <v>9.9879999999999999E-4</v>
+        <v>9.986000000000001E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="C7" s="5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="6">
+        <v>80</v>
+      </c>
+      <c r="C8" s="6">
         <f>[4]Total!$G$3</f>
-        <v>1.183011583011583</v>
-      </c>
-      <c r="D7" s="5">
+        <v>1.4610038610038611</v>
+      </c>
+      <c r="D8" s="6">
         <f>[4]Total!$G$4</f>
         <v>259</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="6">
         <f>[4]Total!$G$5</f>
-        <v>79.599999999999994</v>
-      </c>
-      <c r="F7" s="5">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="F8" s="6">
         <f>[4]Total!$G$6</f>
-        <v>0.30733590733590732</v>
-      </c>
-      <c r="G7" s="5">
+        <v>0.25714285714285712</v>
+      </c>
+      <c r="G8" s="6">
         <f>[4]Total!$G$7</f>
-        <v>752.8</v>
-      </c>
-      <c r="H7" s="5">
+        <v>1460.2</v>
+      </c>
+      <c r="H8" s="6">
         <f>[4]Total!$G$8</f>
         <v>9.986000000000001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/statistics/momentum/analise.xlsx
+++ b/statistics/momentum/analise.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>average error</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Total Network Error</t>
+  </si>
+  <si>
+    <t>Momentum</t>
   </si>
 </sst>
 </file>
@@ -114,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -130,6 +133,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -242,19 +251,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>40.0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -295,11 +304,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2044302800"/>
-        <c:axId val="-2040764144"/>
+        <c:axId val="-2130381120"/>
+        <c:axId val="-2135472144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2044302800"/>
+        <c:axId val="-2130381120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -342,7 +351,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2040764144"/>
+        <c:crossAx val="-2135472144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -350,7 +359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2040764144"/>
+        <c:axId val="-2135472144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -401,7 +410,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2044302800"/>
+        <c:crossAx val="-2130381120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -603,19 +612,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>40.0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -656,11 +665,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2134843600"/>
-        <c:axId val="-2031544336"/>
+        <c:axId val="-2130639344"/>
+        <c:axId val="-2133417280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2134843600"/>
+        <c:axId val="-2130639344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -703,7 +712,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2031544336"/>
+        <c:crossAx val="-2133417280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -711,7 +720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2031544336"/>
+        <c:axId val="-2133417280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,7 +771,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134843600"/>
+        <c:crossAx val="-2130639344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -939,19 +948,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>40.0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -992,11 +1001,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2051557088"/>
-        <c:axId val="-2053324688"/>
+        <c:axId val="-2133183552"/>
+        <c:axId val="-2135054976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2051557088"/>
+        <c:axId val="-2133183552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1039,7 +1048,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2053324688"/>
+        <c:crossAx val="-2135054976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1047,7 +1056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2053324688"/>
+        <c:axId val="-2135054976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,7 +1107,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051557088"/>
+        <c:crossAx val="-2133183552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2886,6 +2895,60 @@
       <sheetData sheetId="5">
         <row r="3">
           <cell r="G3">
+            <v>1.149034749034749</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>259</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>83.8</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.32355212355212359</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>621.79999999999995</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8">
+            <v>9.986000000000001E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="output"/>
+      <sheetName val="output (2)"/>
+      <sheetName val="output (3)"/>
+      <sheetName val="output (4)"/>
+      <sheetName val="output (5)"/>
+      <sheetName val="Total"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="3">
+          <cell r="G3">
             <v>1.183011583011583</v>
           </cell>
         </row>
@@ -2920,7 +2983,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2974,7 +3037,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3028,7 +3091,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3069,60 +3132,6 @@
         <row r="7">
           <cell r="G7">
             <v>1460.2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8">
-            <v>9.986000000000001E-4</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output"/>
-      <sheetName val="output (2)"/>
-      <sheetName val="output (3)"/>
-      <sheetName val="output (4)"/>
-      <sheetName val="output (5)"/>
-      <sheetName val="Total"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5">
-        <row r="3">
-          <cell r="G3">
-            <v>1.149034749034749</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>259</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>83.8</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>0.32355212355212359</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>621.79999999999995</v>
           </cell>
         </row>
         <row r="8">
@@ -3401,8 +3410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3414,7 +3423,9 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3435,147 +3446,147 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
-        <v>40</v>
+      <c r="B4" s="8">
+        <v>0.4</v>
       </c>
       <c r="C4" s="5">
+        <f>[1]Total!$G$3</f>
+        <v>1.149034749034749</v>
+      </c>
+      <c r="D4" s="5">
+        <f>[1]Total!$G$4</f>
+        <v>259</v>
+      </c>
+      <c r="E4" s="5">
+        <f>[1]Total!$G$5</f>
+        <v>83.8</v>
+      </c>
+      <c r="F4" s="5">
+        <f>[1]Total!$G$6</f>
+        <v>0.32355212355212359</v>
+      </c>
+      <c r="G4" s="5">
+        <f>[1]Total!$G$7</f>
+        <v>621.79999999999995</v>
+      </c>
+      <c r="H4" s="5">
+        <f>[1]Total!$G$8</f>
+        <v>9.986000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="6">
+        <f>[2]Total!$G$3</f>
+        <v>1.183011583011583</v>
+      </c>
+      <c r="D5" s="6">
+        <f>[2]Total!$G$4</f>
+        <v>259</v>
+      </c>
+      <c r="E5" s="6">
+        <f>[2]Total!$G$5</f>
+        <v>79.599999999999994</v>
+      </c>
+      <c r="F5" s="6">
+        <f>[2]Total!$G$6</f>
+        <v>0.30733590733590732</v>
+      </c>
+      <c r="G5" s="6">
+        <f>[2]Total!$G$7</f>
+        <v>752.8</v>
+      </c>
+      <c r="H5" s="6">
+        <f>[2]Total!$G$8</f>
+        <v>9.986000000000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="C6" s="2">
+        <f>[3]Total!$G$3</f>
+        <v>1.2540540540540541</v>
+      </c>
+      <c r="D6" s="2">
+        <f>[3]Total!$G$4</f>
+        <v>259</v>
+      </c>
+      <c r="E6" s="2">
+        <f>[3]Total!$G$5</f>
+        <v>77.2</v>
+      </c>
+      <c r="F6" s="2">
+        <f>[3]Total!$G$6</f>
+        <v>0.29806949806949812</v>
+      </c>
+      <c r="G6" s="2">
+        <f>[3]Total!$G$7</f>
+        <v>918.6</v>
+      </c>
+      <c r="H6" s="2">
+        <f>[3]Total!$G$8</f>
+        <v>9.9879999999999999E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="C7" s="7">
+        <f>[4]Total!$G$3</f>
+        <v>1.2965250965250967</v>
+      </c>
+      <c r="D7" s="7">
+        <f>[4]Total!$G$4</f>
+        <v>259</v>
+      </c>
+      <c r="E7" s="7">
+        <f>[4]Total!$G$5</f>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="F7" s="7">
+        <f>[4]Total!$G$6</f>
+        <v>0.26486486486486482</v>
+      </c>
+      <c r="G7" s="7">
+        <f>[4]Total!$G$7</f>
+        <v>933.8</v>
+      </c>
+      <c r="H7" s="7">
+        <f>[4]Total!$G$8</f>
+        <v>9.986000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="6">
         <f>[5]Total!$G$3</f>
-        <v>1.149034749034749</v>
-      </c>
-      <c r="D4" s="5">
+        <v>1.4610038610038611</v>
+      </c>
+      <c r="D8" s="6">
         <f>[5]Total!$G$4</f>
         <v>259</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E8" s="6">
         <f>[5]Total!$G$5</f>
-        <v>83.8</v>
-      </c>
-      <c r="F4" s="5">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="F8" s="6">
         <f>[5]Total!$G$6</f>
-        <v>0.32355212355212359</v>
-      </c>
-      <c r="G4" s="5">
+        <v>0.25714285714285712</v>
+      </c>
+      <c r="G8" s="6">
         <f>[5]Total!$G$7</f>
-        <v>621.79999999999995</v>
-      </c>
-      <c r="H4" s="5">
+        <v>1460.2</v>
+      </c>
+      <c r="H8" s="6">
         <f>[5]Total!$G$8</f>
-        <v>9.986000000000001E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="5">
-        <v>50</v>
-      </c>
-      <c r="C5" s="5">
-        <f>[1]Total!$G$3</f>
-        <v>1.183011583011583</v>
-      </c>
-      <c r="D5" s="5">
-        <f>[1]Total!$G$4</f>
-        <v>259</v>
-      </c>
-      <c r="E5" s="5">
-        <f>[1]Total!$G$5</f>
-        <v>79.599999999999994</v>
-      </c>
-      <c r="F5" s="5">
-        <f>[1]Total!$G$6</f>
-        <v>0.30733590733590732</v>
-      </c>
-      <c r="G5" s="5">
-        <f>[1]Total!$G$7</f>
-        <v>752.8</v>
-      </c>
-      <c r="H5" s="5">
-        <f>[1]Total!$G$8</f>
-        <v>9.986000000000001E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
-        <v>60</v>
-      </c>
-      <c r="C6" s="2">
-        <f>[2]Total!$G$3</f>
-        <v>1.2540540540540541</v>
-      </c>
-      <c r="D6" s="2">
-        <f>[2]Total!$G$4</f>
-        <v>259</v>
-      </c>
-      <c r="E6" s="2">
-        <f>[2]Total!$G$5</f>
-        <v>77.2</v>
-      </c>
-      <c r="F6" s="2">
-        <f>[2]Total!$G$6</f>
-        <v>0.29806949806949812</v>
-      </c>
-      <c r="G6" s="2">
-        <f>[2]Total!$G$7</f>
-        <v>918.6</v>
-      </c>
-      <c r="H6" s="2">
-        <f>[2]Total!$G$8</f>
-        <v>9.9879999999999999E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <v>70</v>
-      </c>
-      <c r="C7" s="1">
-        <f>[3]Total!$G$3</f>
-        <v>1.2965250965250967</v>
-      </c>
-      <c r="D7" s="1">
-        <f>[3]Total!$G$4</f>
-        <v>259</v>
-      </c>
-      <c r="E7" s="1">
-        <f>[3]Total!$G$5</f>
-        <v>68.599999999999994</v>
-      </c>
-      <c r="F7" s="1">
-        <f>[3]Total!$G$6</f>
-        <v>0.26486486486486482</v>
-      </c>
-      <c r="G7" s="1">
-        <f>[3]Total!$G$7</f>
-        <v>933.8</v>
-      </c>
-      <c r="H7" s="1">
-        <f>[3]Total!$G$8</f>
-        <v>9.986000000000001E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="6">
-        <v>80</v>
-      </c>
-      <c r="C8" s="6">
-        <f>[4]Total!$G$3</f>
-        <v>1.4610038610038611</v>
-      </c>
-      <c r="D8" s="6">
-        <f>[4]Total!$G$4</f>
-        <v>259</v>
-      </c>
-      <c r="E8" s="6">
-        <f>[4]Total!$G$5</f>
-        <v>66.599999999999994</v>
-      </c>
-      <c r="F8" s="6">
-        <f>[4]Total!$G$6</f>
-        <v>0.25714285714285712</v>
-      </c>
-      <c r="G8" s="6">
-        <f>[4]Total!$G$7</f>
-        <v>1460.2</v>
-      </c>
-      <c r="H8" s="6">
-        <f>[4]Total!$G$8</f>
         <v>9.986000000000001E-4</v>
       </c>
     </row>
